--- a/R/status.xlsx
+++ b/R/status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Types of Trips</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>Use Back Home data</t>
   </si>
   <si>
     <t>Types of People</t>
@@ -454,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -482,16 +479,16 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -499,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -508,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <f>(12321/22000)</f>
@@ -523,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -532,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <f>3821/22000</f>
@@ -544,105 +541,105 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
